--- a/ConfigScource.xlsx
+++ b/ConfigScource.xlsx
@@ -8,20 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s1b06wv/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C08E1DF-AC97-CF4D-AF01-CF1E909AA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15538860-B4C9-DD42-A59A-F1BD05F3792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{1997B6C0-E88E-427A-B362-BE1AF915F4DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="PARTAGENERAL" sheetId="5" r:id="rId2"/>
-    <sheet name="PARTAGENERALAct" sheetId="3" r:id="rId3"/>
-    <sheet name="PARTAGENERALSection" sheetId="4" r:id="rId4"/>
-    <sheet name="GENERAL2" sheetId="7" r:id="rId5"/>
-    <sheet name="NATUREOFBUSINESS" sheetId="8" r:id="rId6"/>
+    <sheet name="PART A - GENERAL" sheetId="5" r:id="rId1"/>
+    <sheet name="GENERAL2" sheetId="7" r:id="rId2"/>
+    <sheet name="NATURE OF BUSINESS" sheetId="8" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="ReturnfiledSection">[1]DB!$D$1:$D$6</definedName>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="823">
   <si>
     <t>Name</t>
   </si>
@@ -260,345 +257,9 @@
     <t>Date_furnishing_auditreport</t>
   </si>
   <si>
-    <t>SectionCode</t>
-  </si>
-  <si>
-    <t>OtherSection</t>
-  </si>
-  <si>
-    <t>furnished_other_ audit_report</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Act</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>audited_under_selected_Act_other_than_Income-tax_Act</t>
-  </si>
-  <si>
-    <t>Date_furnishing_audit_report</t>
-  </si>
-  <si>
-    <t>Part A - General</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>FiledName</t>
   </si>
   <si>
-    <t>TabName</t>
-  </si>
-  <si>
-    <t>NatureofCompany</t>
-  </si>
-  <si>
-    <t>General2</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>NameofHoldingCompany</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>AddressofHoldingCompany</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>IncomeTaxAct_2(36A)</t>
-  </si>
-  <si>
-    <t>OwnedByRBI</t>
-  </si>
-  <si>
-    <t>NotLessThan40%Shares</t>
-  </si>
-  <si>
-    <t>Section5BankingRegulationAct,1949</t>
-  </si>
-  <si>
-    <t>SecondScheduletotheRBIAct</t>
-  </si>
-  <si>
-    <t>RegWithInsuranceRegulatory&amp;DevAuth</t>
-  </si>
-  <si>
-    <t>Non-bankingFinancialInstitution</t>
-  </si>
-  <si>
-    <t>CompanyUnlisted</t>
-  </si>
-  <si>
-    <t>NatureofBusiness</t>
-  </si>
-  <si>
-    <t>Code-SubSector</t>
-  </si>
-  <si>
-    <t>TradeName</t>
-  </si>
-  <si>
-    <t>HCCity</t>
-  </si>
-  <si>
-    <t>HCState</t>
-  </si>
-  <si>
-    <t>HCCountry</t>
-  </si>
-  <si>
-    <t>HCPinCode</t>
-  </si>
-  <si>
-    <t>HCZipCode</t>
-  </si>
-  <si>
-    <t>HCPAN</t>
-  </si>
-  <si>
-    <t>BOCity</t>
-  </si>
-  <si>
-    <t>BOState</t>
-  </si>
-  <si>
-    <t>BOAddress</t>
-  </si>
-  <si>
-    <t>BOCountry</t>
-  </si>
-  <si>
-    <t>BOPinCode</t>
-  </si>
-  <si>
-    <t>BOZipCode</t>
-  </si>
-  <si>
-    <t>BOPAN</t>
-  </si>
-  <si>
-    <t>KPName</t>
-  </si>
-  <si>
-    <t>KPDesignation</t>
-  </si>
-  <si>
-    <t>KPAddress</t>
-  </si>
-  <si>
-    <t>KPCity</t>
-  </si>
-  <si>
-    <t>KPState</t>
-  </si>
-  <si>
-    <t>KPCountry</t>
-  </si>
-  <si>
-    <t>KPPinCode</t>
-  </si>
-  <si>
-    <t>KPZipCode</t>
-  </si>
-  <si>
-    <t>KPPAN</t>
-  </si>
-  <si>
-    <t>KPAadhaarNo</t>
-  </si>
-  <si>
-    <t>KPDINissuedbyMCA</t>
-  </si>
-  <si>
-    <t>BODateofEvent</t>
-  </si>
-  <si>
-    <t>HCPercentageofSharesHeld</t>
-  </si>
-  <si>
-    <t>SHIName</t>
-  </si>
-  <si>
-    <t>SHIAddress</t>
-  </si>
-  <si>
-    <t>SHICity</t>
-  </si>
-  <si>
-    <t>SHIState</t>
-  </si>
-  <si>
-    <t>SHICountry</t>
-  </si>
-  <si>
-    <t>SHIPinCode</t>
-  </si>
-  <si>
-    <t>SHIZipCode</t>
-  </si>
-  <si>
-    <t>SHIPercentageofSharesHeld</t>
-  </si>
-  <si>
-    <t>SHIPAN</t>
-  </si>
-  <si>
-    <t>SHIAadhaarNo</t>
-  </si>
-  <si>
-    <t>BOCompanyName</t>
-  </si>
-  <si>
-    <t>BOBusinessType</t>
-  </si>
-  <si>
-    <t>OIName</t>
-  </si>
-  <si>
-    <t>OIAddress</t>
-  </si>
-  <si>
-    <t>OICity</t>
-  </si>
-  <si>
-    <t>OIState</t>
-  </si>
-  <si>
-    <t>OICountry</t>
-  </si>
-  <si>
-    <t>OIPinCode</t>
-  </si>
-  <si>
-    <t>OIZipCode</t>
-  </si>
-  <si>
-    <t>OIPercentageofSharesHeld</t>
-  </si>
-  <si>
-    <t>OIPAN</t>
-  </si>
-  <si>
-    <t>OIAadhaarNo</t>
-  </si>
-  <si>
-    <t>IPCName</t>
-  </si>
-  <si>
-    <t>IPCAddress</t>
-  </si>
-  <si>
-    <t>IPCCity</t>
-  </si>
-  <si>
-    <t>IPCState</t>
-  </si>
-  <si>
-    <t>IPCCountry</t>
-  </si>
-  <si>
-    <t>IPCPinCode</t>
-  </si>
-  <si>
-    <t>IPCZipCode</t>
-  </si>
-  <si>
-    <t>IPCCountryofResidence</t>
-  </si>
-  <si>
-    <t>IPCPAN</t>
-  </si>
-  <si>
-    <t>IPCTaxPayersRegNo</t>
-  </si>
-  <si>
-    <t>UPCName</t>
-  </si>
-  <si>
-    <t>UPCAddress</t>
-  </si>
-  <si>
-    <t>UPCCity</t>
-  </si>
-  <si>
-    <t>UPCState</t>
-  </si>
-  <si>
-    <t>UPCCountry</t>
-  </si>
-  <si>
-    <t>UPCPinCode</t>
-  </si>
-  <si>
-    <t>UPCZipCode</t>
-  </si>
-  <si>
-    <t>UPCCountryofResidence</t>
-  </si>
-  <si>
-    <t>UPCPAN</t>
-  </si>
-  <si>
-    <t>UPCTaxPayersRegNo</t>
-  </si>
-  <si>
     <t>Cell Index</t>
   </si>
   <si>
@@ -1083,13 +744,1780 @@
   </si>
   <si>
     <t>Act_section5.audit_date</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Holding_company_status</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>K20</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>K22</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>H86</t>
+  </si>
+  <si>
+    <t>H87</t>
+  </si>
+  <si>
+    <t>H88</t>
+  </si>
+  <si>
+    <t>H90</t>
+  </si>
+  <si>
+    <t>H89</t>
+  </si>
+  <si>
+    <t>H91</t>
+  </si>
+  <si>
+    <t>H92</t>
+  </si>
+  <si>
+    <t>H93</t>
+  </si>
+  <si>
+    <t>Holding_company1.name</t>
+  </si>
+  <si>
+    <t>Holding_company1.address</t>
+  </si>
+  <si>
+    <t>Holding_company1.city</t>
+  </si>
+  <si>
+    <t>Holding_company1.state</t>
+  </si>
+  <si>
+    <t>Holding_company1.country</t>
+  </si>
+  <si>
+    <t>Holding_company1.pin_code</t>
+  </si>
+  <si>
+    <t>Holding_company1.zip_code</t>
+  </si>
+  <si>
+    <t>Holding_company1.pan</t>
+  </si>
+  <si>
+    <t>Holding_company1.share_percent</t>
+  </si>
+  <si>
+    <t>Holding_company2.name</t>
+  </si>
+  <si>
+    <t>Holding_company2.address</t>
+  </si>
+  <si>
+    <t>Holding_company2.city</t>
+  </si>
+  <si>
+    <t>Holding_company2.state</t>
+  </si>
+  <si>
+    <t>Holding_company2.country</t>
+  </si>
+  <si>
+    <t>Holding_company2.pin_code</t>
+  </si>
+  <si>
+    <t>Holding_company2.zip_code</t>
+  </si>
+  <si>
+    <t>Holding_company2.pan</t>
+  </si>
+  <si>
+    <t>Holding_company2.share_percent</t>
+  </si>
+  <si>
+    <t>Holding_company3.name</t>
+  </si>
+  <si>
+    <t>Holding_company3.address</t>
+  </si>
+  <si>
+    <t>Holding_company3.city</t>
+  </si>
+  <si>
+    <t>Holding_company3.state</t>
+  </si>
+  <si>
+    <t>Holding_company3.country</t>
+  </si>
+  <si>
+    <t>Holding_company3.pin_code</t>
+  </si>
+  <si>
+    <t>Holding_company3.zip_code</t>
+  </si>
+  <si>
+    <t>Holding_company3.pan</t>
+  </si>
+  <si>
+    <t>Holding_company3.share_percent</t>
+  </si>
+  <si>
+    <t>Holding_company4.name</t>
+  </si>
+  <si>
+    <t>Holding_company4.address</t>
+  </si>
+  <si>
+    <t>Holding_company4.city</t>
+  </si>
+  <si>
+    <t>Holding_company4.state</t>
+  </si>
+  <si>
+    <t>Holding_company4.country</t>
+  </si>
+  <si>
+    <t>Holding_company4.pin_code</t>
+  </si>
+  <si>
+    <t>Holding_company4.zip_code</t>
+  </si>
+  <si>
+    <t>Holding_company4.pan</t>
+  </si>
+  <si>
+    <t>Holding_company4.share_percent</t>
+  </si>
+  <si>
+    <t>Business_org1.business_type</t>
+  </si>
+  <si>
+    <t>Business_org1.name</t>
+  </si>
+  <si>
+    <t>Business_org1.address</t>
+  </si>
+  <si>
+    <t>Business_org1.city</t>
+  </si>
+  <si>
+    <t>Business_org1.state</t>
+  </si>
+  <si>
+    <t>Business_org1.country</t>
+  </si>
+  <si>
+    <t>Business_org1.pin_code</t>
+  </si>
+  <si>
+    <t>Business_org1.zip_code</t>
+  </si>
+  <si>
+    <t>Business_org1.pan</t>
+  </si>
+  <si>
+    <t>Business_org1.event_date</t>
+  </si>
+  <si>
+    <t>Business_org2.business_type</t>
+  </si>
+  <si>
+    <t>Business_org2.name</t>
+  </si>
+  <si>
+    <t>Business_org2.address</t>
+  </si>
+  <si>
+    <t>Business_org2.city</t>
+  </si>
+  <si>
+    <t>Business_org2.state</t>
+  </si>
+  <si>
+    <t>Business_org2.country</t>
+  </si>
+  <si>
+    <t>Business_org2.pin_code</t>
+  </si>
+  <si>
+    <t>Business_org2.zip_code</t>
+  </si>
+  <si>
+    <t>Business_org2.pan</t>
+  </si>
+  <si>
+    <t>Business_org2.event_date</t>
+  </si>
+  <si>
+    <t>Business_org3.business_type</t>
+  </si>
+  <si>
+    <t>Business_org3.name</t>
+  </si>
+  <si>
+    <t>Business_org3.address</t>
+  </si>
+  <si>
+    <t>Business_org3.city</t>
+  </si>
+  <si>
+    <t>Business_org3.state</t>
+  </si>
+  <si>
+    <t>Business_org3.country</t>
+  </si>
+  <si>
+    <t>Business_org3.pin_code</t>
+  </si>
+  <si>
+    <t>Business_org3.zip_code</t>
+  </si>
+  <si>
+    <t>Business_org3.pan</t>
+  </si>
+  <si>
+    <t>Business_org3.event_date</t>
+  </si>
+  <si>
+    <t>Business_org4.business_type</t>
+  </si>
+  <si>
+    <t>Business_org4.name</t>
+  </si>
+  <si>
+    <t>Business_org4.address</t>
+  </si>
+  <si>
+    <t>Business_org4.city</t>
+  </si>
+  <si>
+    <t>Business_org4.state</t>
+  </si>
+  <si>
+    <t>Business_org4.country</t>
+  </si>
+  <si>
+    <t>Business_org4.pin_code</t>
+  </si>
+  <si>
+    <t>Business_org4.zip_code</t>
+  </si>
+  <si>
+    <t>Business_org4.pan</t>
+  </si>
+  <si>
+    <t>Business_org4.event_date</t>
+  </si>
+  <si>
+    <t>Key_persons1.name</t>
+  </si>
+  <si>
+    <t>Key_persons1.designation</t>
+  </si>
+  <si>
+    <t>Key_persons1.address</t>
+  </si>
+  <si>
+    <t>Key_persons1.city</t>
+  </si>
+  <si>
+    <t>Key_persons1.state</t>
+  </si>
+  <si>
+    <t>Key_persons1.country</t>
+  </si>
+  <si>
+    <t>Key_persons1.pin_code</t>
+  </si>
+  <si>
+    <t>Key_persons1.zip_code</t>
+  </si>
+  <si>
+    <t>Key_persons1.pan</t>
+  </si>
+  <si>
+    <t>Key_persons1.aadhar</t>
+  </si>
+  <si>
+    <t>Key_persons1.din</t>
+  </si>
+  <si>
+    <t>Key_persons2.name</t>
+  </si>
+  <si>
+    <t>Key_persons2.designation</t>
+  </si>
+  <si>
+    <t>Key_persons2.address</t>
+  </si>
+  <si>
+    <t>Key_persons2.city</t>
+  </si>
+  <si>
+    <t>Key_persons2.state</t>
+  </si>
+  <si>
+    <t>Key_persons2.country</t>
+  </si>
+  <si>
+    <t>Key_persons2.pin_code</t>
+  </si>
+  <si>
+    <t>Key_persons2.zip_code</t>
+  </si>
+  <si>
+    <t>Key_persons2.pan</t>
+  </si>
+  <si>
+    <t>Key_persons2.aadhar</t>
+  </si>
+  <si>
+    <t>Key_persons2.din</t>
+  </si>
+  <si>
+    <t>Key_persons3.name</t>
+  </si>
+  <si>
+    <t>Key_persons3.designation</t>
+  </si>
+  <si>
+    <t>Key_persons3.address</t>
+  </si>
+  <si>
+    <t>Key_persons3.city</t>
+  </si>
+  <si>
+    <t>Key_persons3.state</t>
+  </si>
+  <si>
+    <t>Key_persons3.country</t>
+  </si>
+  <si>
+    <t>Key_persons3.pin_code</t>
+  </si>
+  <si>
+    <t>Key_persons3.zip_code</t>
+  </si>
+  <si>
+    <t>Key_persons3.pan</t>
+  </si>
+  <si>
+    <t>Key_persons3.aadhar</t>
+  </si>
+  <si>
+    <t>Key_persons3.din</t>
+  </si>
+  <si>
+    <t>Key_persons4.name</t>
+  </si>
+  <si>
+    <t>Key_persons4.designation</t>
+  </si>
+  <si>
+    <t>Key_persons4.address</t>
+  </si>
+  <si>
+    <t>Key_persons4.city</t>
+  </si>
+  <si>
+    <t>Key_persons4.state</t>
+  </si>
+  <si>
+    <t>Key_persons4.country</t>
+  </si>
+  <si>
+    <t>Key_persons4.pin_code</t>
+  </si>
+  <si>
+    <t>Key_persons4.zip_code</t>
+  </si>
+  <si>
+    <t>Key_persons4.pan</t>
+  </si>
+  <si>
+    <t>Key_persons4.aadhar</t>
+  </si>
+  <si>
+    <t>Key_persons4.din</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.name</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.address</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.city</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.state</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.country</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.pin_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.zip_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.share_percent</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.pan</t>
+  </si>
+  <si>
+    <t>Shareholder_info1.aadhar</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.name</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.address</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.city</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.state</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.country</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.pin_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.zip_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.share_percent</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.pan</t>
+  </si>
+  <si>
+    <t>Shareholder_info2.aadhar</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.name</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.address</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.city</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.state</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.country</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.pin_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.zip_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.share_percent</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.pan</t>
+  </si>
+  <si>
+    <t>Shareholder_info3.aadhar</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.name</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.address</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.city</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.state</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.country</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.pin_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.zip_code</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.share_percent</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.pan</t>
+  </si>
+  <si>
+    <t>Shareholder_info4.aadhar</t>
+  </si>
+  <si>
+    <t>Ownership_info1.name</t>
+  </si>
+  <si>
+    <t>Ownership_info1.address</t>
+  </si>
+  <si>
+    <t>Ownership_info1.city</t>
+  </si>
+  <si>
+    <t>Ownership_info1.state</t>
+  </si>
+  <si>
+    <t>Ownership_info1.country</t>
+  </si>
+  <si>
+    <t>Ownership_info1.pin_code</t>
+  </si>
+  <si>
+    <t>Ownership_info1.zip_code</t>
+  </si>
+  <si>
+    <t>Ownership_info1.share_percent</t>
+  </si>
+  <si>
+    <t>Ownership_info1.pan</t>
+  </si>
+  <si>
+    <t>Ownership_info1.aadhar</t>
+  </si>
+  <si>
+    <t>Ownership_info2.name</t>
+  </si>
+  <si>
+    <t>Ownership_info2.address</t>
+  </si>
+  <si>
+    <t>Ownership_info2.city</t>
+  </si>
+  <si>
+    <t>Ownership_info2.state</t>
+  </si>
+  <si>
+    <t>Ownership_info2.country</t>
+  </si>
+  <si>
+    <t>Ownership_info2.pin_code</t>
+  </si>
+  <si>
+    <t>Ownership_info2.zip_code</t>
+  </si>
+  <si>
+    <t>Ownership_info2.share_percent</t>
+  </si>
+  <si>
+    <t>Ownership_info2.pan</t>
+  </si>
+  <si>
+    <t>Ownership_info2.aadhar</t>
+  </si>
+  <si>
+    <t>Ownership_info3.name</t>
+  </si>
+  <si>
+    <t>Ownership_info3.address</t>
+  </si>
+  <si>
+    <t>Ownership_info3.city</t>
+  </si>
+  <si>
+    <t>Ownership_info3.state</t>
+  </si>
+  <si>
+    <t>Ownership_info3.country</t>
+  </si>
+  <si>
+    <t>Ownership_info3.pin_code</t>
+  </si>
+  <si>
+    <t>Ownership_info3.zip_code</t>
+  </si>
+  <si>
+    <t>Ownership_info3.share_percent</t>
+  </si>
+  <si>
+    <t>Ownership_info3.pan</t>
+  </si>
+  <si>
+    <t>Ownership_info3.aadhar</t>
+  </si>
+  <si>
+    <t>Ownership_info4.name</t>
+  </si>
+  <si>
+    <t>Ownership_info4.address</t>
+  </si>
+  <si>
+    <t>Ownership_info4.city</t>
+  </si>
+  <si>
+    <t>Ownership_info4.state</t>
+  </si>
+  <si>
+    <t>Ownership_info4.country</t>
+  </si>
+  <si>
+    <t>Ownership_info4.pin_code</t>
+  </si>
+  <si>
+    <t>Ownership_info4.zip_code</t>
+  </si>
+  <si>
+    <t>Ownership_info4.share_percent</t>
+  </si>
+  <si>
+    <t>Ownership_info4.pan</t>
+  </si>
+  <si>
+    <t>Ownership_info4.aadhar</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.name</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.address</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.city</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.state</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.pan</t>
+  </si>
+  <si>
+    <t>Foreign_ipc1.tin</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.name</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.address</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.city</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.state</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.pan</t>
+  </si>
+  <si>
+    <t>Foreign_ipc2.tin</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.name</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.address</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.city</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.state</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.pan</t>
+  </si>
+  <si>
+    <t>Foreign_ipc3.tin</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.name</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.address</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.city</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.state</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.pan</t>
+  </si>
+  <si>
+    <t>Foreign_ipc4.tin</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.name</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.address</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.city</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.state</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.country</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.pan</t>
+  </si>
+  <si>
+    <t>Foreign_upc1.tin</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.name</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.address</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.city</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.state</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.country</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.pan</t>
+  </si>
+  <si>
+    <t>Foreign_upc2.tin</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.name</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.address</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.city</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.state</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.country</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.pan</t>
+  </si>
+  <si>
+    <t>Foreign_upc3.tin</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.name</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.address</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.city</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.state</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.country</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.pin_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.zip_code</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.resident_country</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.pan</t>
+  </si>
+  <si>
+    <t>Foreign_upc4.tin</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_2_36A</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_owned_by_rbi</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_40_percent_share</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_sec5_bra_1949_act</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_2nd_schedule_to_rbi</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_sec3_daa_1999_act</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_nbfc</t>
+  </si>
+  <si>
+    <t>Nature_of_company.is_unlisted</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>H32</t>
+  </si>
+  <si>
+    <t>I32</t>
+  </si>
+  <si>
+    <t>J32</t>
+  </si>
+  <si>
+    <t>K32</t>
+  </si>
+  <si>
+    <t>L32</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>N32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>H33</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>J33</t>
+  </si>
+  <si>
+    <t>K33</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>N33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>G34</t>
+  </si>
+  <si>
+    <t>H34</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>J34</t>
+  </si>
+  <si>
+    <t>K34</t>
+  </si>
+  <si>
+    <t>L34</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>N34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>E35</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>G35</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>I35</t>
+  </si>
+  <si>
+    <t>J35</t>
+  </si>
+  <si>
+    <t>K35</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>N35</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>G44</t>
+  </si>
+  <si>
+    <t>H44</t>
+  </si>
+  <si>
+    <t>I44</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>K44</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>H45</t>
+  </si>
+  <si>
+    <t>I45</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>K45</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>K46</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>E47</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>H47</t>
+  </si>
+  <si>
+    <t>I47</t>
+  </si>
+  <si>
+    <t>J47</t>
+  </si>
+  <si>
+    <t>K47</t>
+  </si>
+  <si>
+    <t>L47</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>G56</t>
+  </si>
+  <si>
+    <t>H56</t>
+  </si>
+  <si>
+    <t>I56</t>
+  </si>
+  <si>
+    <t>J56</t>
+  </si>
+  <si>
+    <t>K56</t>
+  </si>
+  <si>
+    <t>L56</t>
+  </si>
+  <si>
+    <t>M56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>G57</t>
+  </si>
+  <si>
+    <t>H57</t>
+  </si>
+  <si>
+    <t>I57</t>
+  </si>
+  <si>
+    <t>J57</t>
+  </si>
+  <si>
+    <t>K57</t>
+  </si>
+  <si>
+    <t>L57</t>
+  </si>
+  <si>
+    <t>M57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>G58</t>
+  </si>
+  <si>
+    <t>H58</t>
+  </si>
+  <si>
+    <t>I58</t>
+  </si>
+  <si>
+    <t>J58</t>
+  </si>
+  <si>
+    <t>K58</t>
+  </si>
+  <si>
+    <t>L58</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>G59</t>
+  </si>
+  <si>
+    <t>H59</t>
+  </si>
+  <si>
+    <t>I59</t>
+  </si>
+  <si>
+    <t>J59</t>
+  </si>
+  <si>
+    <t>K59</t>
+  </si>
+  <si>
+    <t>L59</t>
+  </si>
+  <si>
+    <t>M59</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>E67</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>G67</t>
+  </si>
+  <si>
+    <t>H67</t>
+  </si>
+  <si>
+    <t>I67</t>
+  </si>
+  <si>
+    <t>J67</t>
+  </si>
+  <si>
+    <t>K67</t>
+  </si>
+  <si>
+    <t>L67</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>E68</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>G68</t>
+  </si>
+  <si>
+    <t>H68</t>
+  </si>
+  <si>
+    <t>I68</t>
+  </si>
+  <si>
+    <t>J68</t>
+  </si>
+  <si>
+    <t>K68</t>
+  </si>
+  <si>
+    <t>L68</t>
+  </si>
+  <si>
+    <t>M68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>E69</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>G69</t>
+  </si>
+  <si>
+    <t>H69</t>
+  </si>
+  <si>
+    <t>I69</t>
+  </si>
+  <si>
+    <t>J69</t>
+  </si>
+  <si>
+    <t>K69</t>
+  </si>
+  <si>
+    <t>L69</t>
+  </si>
+  <si>
+    <t>M69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>E70</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>H70</t>
+  </si>
+  <si>
+    <t>I70</t>
+  </si>
+  <si>
+    <t>J70</t>
+  </si>
+  <si>
+    <t>K70</t>
+  </si>
+  <si>
+    <t>L70</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>E78</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>H78</t>
+  </si>
+  <si>
+    <t>I78</t>
+  </si>
+  <si>
+    <t>J78</t>
+  </si>
+  <si>
+    <t>K78</t>
+  </si>
+  <si>
+    <t>L78</t>
+  </si>
+  <si>
+    <t>M78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>E79</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>G79</t>
+  </si>
+  <si>
+    <t>H79</t>
+  </si>
+  <si>
+    <t>I79</t>
+  </si>
+  <si>
+    <t>J79</t>
+  </si>
+  <si>
+    <t>K79</t>
+  </si>
+  <si>
+    <t>L79</t>
+  </si>
+  <si>
+    <t>M79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>E80</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>G80</t>
+  </si>
+  <si>
+    <t>H80</t>
+  </si>
+  <si>
+    <t>I80</t>
+  </si>
+  <si>
+    <t>J80</t>
+  </si>
+  <si>
+    <t>K80</t>
+  </si>
+  <si>
+    <t>L80</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>E81</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>G81</t>
+  </si>
+  <si>
+    <t>H81</t>
+  </si>
+  <si>
+    <t>I81</t>
+  </si>
+  <si>
+    <t>J81</t>
+  </si>
+  <si>
+    <t>K81</t>
+  </si>
+  <si>
+    <t>L81</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>Nature_of_business1.code_sub_sector</t>
+  </si>
+  <si>
+    <t>Nature_of_business1.trade_name</t>
+  </si>
+  <si>
+    <t>Nature_of_business2.code_sub_sector</t>
+  </si>
+  <si>
+    <t>Nature_of_business2.trade_name</t>
+  </si>
+  <si>
+    <t>Nature_of_business3.code_sub_sector</t>
+  </si>
+  <si>
+    <t>Nature_of_business3.trade_name</t>
+  </si>
+  <si>
+    <t>Nature_of_business4.code_sub_sector</t>
+  </si>
+  <si>
+    <t>Nature_of_business4.trade_name</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +2529,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1131,16 +2567,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,25 +3050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F480C329-50F5-495D-BD04-784EFB622756}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08B628A-DE02-458D-9C58-4EA9B5E643B4}">
   <dimension ref="A1:B16383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A118"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1646,11 +3064,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1658,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +3100,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1738,15 +3156,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1754,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +3180,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +3196,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1786,7 +3204,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,7 +3220,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1810,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1818,7 +3236,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +3244,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1834,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1842,23 +3260,23 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1874,7 +3292,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1882,7 +3300,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1890,7 +3308,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1898,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1906,7 +3324,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1914,7 +3332,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1922,7 +3340,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1938,7 +3356,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1946,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1954,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1962,7 +3380,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1970,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1978,7 +3396,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1986,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1994,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2002,7 +3420,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2010,7 +3428,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2018,7 +3436,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2026,7 +3444,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2034,7 +3452,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2042,7 +3460,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2050,7 +3468,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2058,7 +3476,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2066,7 +3484,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2074,7 +3492,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2082,7 +3500,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2090,7 +3508,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2098,7 +3516,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2106,7 +3524,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2114,7 +3532,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2122,7 +3540,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2130,7 +3548,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,7 +3556,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2146,7 +3564,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2154,7 +3572,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2162,7 +3580,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2170,7 +3588,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -2178,7 +3596,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2186,7 +3604,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2194,7 +3612,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,7 +3620,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2210,7 +3628,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -2218,7 +3636,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2226,367 +3644,367 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>304</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="B101" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>318</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>333</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -51389,88 +52807,2405 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29DF462-68FE-449B-9603-9599275878F9}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30017C9-159A-493E-8C83-1D838AC84161}">
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>354</v>
+      </c>
+      <c r="B39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>74</v>
-      </c>
-      <c r="C4">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>74</v>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>370</v>
+      </c>
+      <c r="B55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>372</v>
+      </c>
+      <c r="B57" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>374</v>
+      </c>
+      <c r="B59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>381</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>396</v>
+      </c>
+      <c r="B81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>401</v>
+      </c>
+      <c r="B86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>402</v>
+      </c>
+      <c r="B87" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>403</v>
+      </c>
+      <c r="B88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>404</v>
+      </c>
+      <c r="B89" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>405</v>
+      </c>
+      <c r="B90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>406</v>
+      </c>
+      <c r="B91" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>413</v>
+      </c>
+      <c r="B98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>414</v>
+      </c>
+      <c r="B99" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>416</v>
+      </c>
+      <c r="B101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>424</v>
+      </c>
+      <c r="B109" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>425</v>
+      </c>
+      <c r="B110" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B111" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>429</v>
+      </c>
+      <c r="B114" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B115" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>431</v>
+      </c>
+      <c r="B116" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>433</v>
+      </c>
+      <c r="B118" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>434</v>
+      </c>
+      <c r="B119" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>435</v>
+      </c>
+      <c r="B120" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>436</v>
+      </c>
+      <c r="B121" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>437</v>
+      </c>
+      <c r="B122" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>438</v>
+      </c>
+      <c r="B123" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>439</v>
+      </c>
+      <c r="B124" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>441</v>
+      </c>
+      <c r="B126" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>442</v>
+      </c>
+      <c r="B127" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>443</v>
+      </c>
+      <c r="B128" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>444</v>
+      </c>
+      <c r="B129" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>445</v>
+      </c>
+      <c r="B130" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>446</v>
+      </c>
+      <c r="B131" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>447</v>
+      </c>
+      <c r="B132" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>450</v>
+      </c>
+      <c r="B135" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>451</v>
+      </c>
+      <c r="B136" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>452</v>
+      </c>
+      <c r="B137" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>453</v>
+      </c>
+      <c r="B138" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>454</v>
+      </c>
+      <c r="B139" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>456</v>
+      </c>
+      <c r="B141" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>457</v>
+      </c>
+      <c r="B142" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>460</v>
+      </c>
+      <c r="B145" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>461</v>
+      </c>
+      <c r="B146" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>462</v>
+      </c>
+      <c r="B147" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>463</v>
+      </c>
+      <c r="B148" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>464</v>
+      </c>
+      <c r="B149" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>465</v>
+      </c>
+      <c r="B150" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>466</v>
+      </c>
+      <c r="B151" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>467</v>
+      </c>
+      <c r="B152" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>468</v>
+      </c>
+      <c r="B153" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>470</v>
+      </c>
+      <c r="B155" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>471</v>
+      </c>
+      <c r="B156" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>472</v>
+      </c>
+      <c r="B157" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>473</v>
+      </c>
+      <c r="B158" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>474</v>
+      </c>
+      <c r="B159" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>475</v>
+      </c>
+      <c r="B160" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>477</v>
+      </c>
+      <c r="B162" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>479</v>
+      </c>
+      <c r="B164" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>480</v>
+      </c>
+      <c r="B165" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>482</v>
+      </c>
+      <c r="B167" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>483</v>
+      </c>
+      <c r="B168" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>485</v>
+      </c>
+      <c r="B170" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>486</v>
+      </c>
+      <c r="B171" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>488</v>
+      </c>
+      <c r="B173" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>490</v>
+      </c>
+      <c r="B175" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>491</v>
+      </c>
+      <c r="B176" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>492</v>
+      </c>
+      <c r="B177" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>493</v>
+      </c>
+      <c r="B178" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>494</v>
+      </c>
+      <c r="B179" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>495</v>
+      </c>
+      <c r="B180" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>496</v>
+      </c>
+      <c r="B181" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>497</v>
+      </c>
+      <c r="B182" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>498</v>
+      </c>
+      <c r="B183" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>499</v>
+      </c>
+      <c r="B184" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>500</v>
+      </c>
+      <c r="B185" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>501</v>
+      </c>
+      <c r="B186" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>502</v>
+      </c>
+      <c r="B187" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>504</v>
+      </c>
+      <c r="B189" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>505</v>
+      </c>
+      <c r="B190" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>506</v>
+      </c>
+      <c r="B191" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>507</v>
+      </c>
+      <c r="B192" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>508</v>
+      </c>
+      <c r="B193" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>509</v>
+      </c>
+      <c r="B194" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>510</v>
+      </c>
+      <c r="B195" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>511</v>
+      </c>
+      <c r="B196" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>512</v>
+      </c>
+      <c r="B197" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>513</v>
+      </c>
+      <c r="B198" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>514</v>
+      </c>
+      <c r="B199" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>515</v>
+      </c>
+      <c r="B200" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>516</v>
+      </c>
+      <c r="B201" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>517</v>
+      </c>
+      <c r="B202" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>518</v>
+      </c>
+      <c r="B203" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>519</v>
+      </c>
+      <c r="B204" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>520</v>
+      </c>
+      <c r="B205" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>521</v>
+      </c>
+      <c r="B206" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>522</v>
+      </c>
+      <c r="B207" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>523</v>
+      </c>
+      <c r="B208" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>524</v>
+      </c>
+      <c r="B209" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>525</v>
+      </c>
+      <c r="B210" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>526</v>
+      </c>
+      <c r="B211" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>527</v>
+      </c>
+      <c r="B212" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>528</v>
+      </c>
+      <c r="B213" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>529</v>
+      </c>
+      <c r="B214" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>530</v>
+      </c>
+      <c r="B215" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>531</v>
+      </c>
+      <c r="B216" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>532</v>
+      </c>
+      <c r="B217" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>533</v>
+      </c>
+      <c r="B218" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>534</v>
+      </c>
+      <c r="B219" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>535</v>
+      </c>
+      <c r="B220" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>536</v>
+      </c>
+      <c r="B221" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>537</v>
+      </c>
+      <c r="B222" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>538</v>
+      </c>
+      <c r="B223" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>539</v>
+      </c>
+      <c r="B224" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>540</v>
+      </c>
+      <c r="B225" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>541</v>
+      </c>
+      <c r="B226" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>542</v>
+      </c>
+      <c r="B227" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>543</v>
+      </c>
+      <c r="B228" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>544</v>
+      </c>
+      <c r="B229" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>545</v>
+      </c>
+      <c r="B230" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>546</v>
+      </c>
+      <c r="B231" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>547</v>
+      </c>
+      <c r="B232" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>548</v>
+      </c>
+      <c r="B233" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>549</v>
+      </c>
+      <c r="B234" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>550</v>
+      </c>
+      <c r="B235" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>551</v>
+      </c>
+      <c r="B236" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>552</v>
+      </c>
+      <c r="B237" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>553</v>
+      </c>
+      <c r="B238" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>554</v>
+      </c>
+      <c r="B239" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>555</v>
+      </c>
+      <c r="B240" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>556</v>
+      </c>
+      <c r="B241" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>557</v>
+      </c>
+      <c r="B242" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>558</v>
+      </c>
+      <c r="B243" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>559</v>
+      </c>
+      <c r="B244" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>560</v>
+      </c>
+      <c r="B245" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>561</v>
+      </c>
+      <c r="B246" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>562</v>
+      </c>
+      <c r="B247" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>563</v>
+      </c>
+      <c r="B248" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>564</v>
+      </c>
+      <c r="B249" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>565</v>
+      </c>
+      <c r="B250" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>566</v>
+      </c>
+      <c r="B251" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>567</v>
+      </c>
+      <c r="B252" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>568</v>
+      </c>
+      <c r="B253" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>569</v>
+      </c>
+      <c r="B254" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>570</v>
+      </c>
+      <c r="B255" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>571</v>
+      </c>
+      <c r="B256" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>572</v>
+      </c>
+      <c r="B257" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>573</v>
+      </c>
+      <c r="B258" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>574</v>
+      </c>
+      <c r="B259" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>575</v>
+      </c>
+      <c r="B260" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>576</v>
+      </c>
+      <c r="B261" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>577</v>
+      </c>
+      <c r="B262" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>578</v>
+      </c>
+      <c r="B263" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>579</v>
+      </c>
+      <c r="B264" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>580</v>
+      </c>
+      <c r="B265" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>581</v>
+      </c>
+      <c r="B266" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>582</v>
+      </c>
+      <c r="B267" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>583</v>
+      </c>
+      <c r="B268" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>584</v>
+      </c>
+      <c r="B269" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>585</v>
+      </c>
+      <c r="B270" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>586</v>
+      </c>
+      <c r="B271" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>587</v>
+      </c>
+      <c r="B272" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>588</v>
+      </c>
+      <c r="B273" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>589</v>
+      </c>
+      <c r="B274" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>590</v>
+      </c>
+      <c r="B275" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>591</v>
+      </c>
+      <c r="B276" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>592</v>
+      </c>
+      <c r="B277" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>593</v>
+      </c>
+      <c r="B278" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>594</v>
+      </c>
+      <c r="B279" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>595</v>
+      </c>
+      <c r="B280" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>596</v>
+      </c>
+      <c r="B281" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>597</v>
+      </c>
+      <c r="B282" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>598</v>
+      </c>
+      <c r="B283" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>599</v>
+      </c>
+      <c r="B284" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>600</v>
+      </c>
+      <c r="B285" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>601</v>
+      </c>
+      <c r="B286" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>602</v>
+      </c>
+      <c r="B287" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>603</v>
+      </c>
+      <c r="B288" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>604</v>
+      </c>
+      <c r="B289" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>605</v>
+      </c>
+      <c r="B290" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -51479,1220 +55214,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C3210-5D11-4489-A894-79DD33C5051D}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D7FFB8-FD3C-4C14-84E3-9E76796B88A2}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>82</v>
-      </c>
-      <c r="D4">
-        <v>82</v>
-      </c>
-      <c r="E4">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30017C9-159A-493E-8C83-1D838AC84161}">
-  <dimension ref="A1:CB4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="16.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>20</v>
-      </c>
-      <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4">
-        <v>20</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
-      </c>
-      <c r="S4">
-        <v>20</v>
-      </c>
-      <c r="T4">
-        <v>20</v>
-      </c>
-      <c r="U4">
-        <v>20</v>
-      </c>
-      <c r="V4">
-        <v>32</v>
-      </c>
-      <c r="W4">
-        <v>32</v>
-      </c>
-      <c r="X4">
-        <v>32</v>
-      </c>
-      <c r="Y4">
-        <v>32</v>
-      </c>
-      <c r="Z4">
-        <v>32</v>
-      </c>
-      <c r="AA4">
-        <v>32</v>
-      </c>
-      <c r="AB4">
-        <v>32</v>
-      </c>
-      <c r="AC4">
-        <v>32</v>
-      </c>
-      <c r="AD4">
-        <v>32</v>
-      </c>
-      <c r="AE4">
-        <v>32</v>
-      </c>
-      <c r="AF4">
-        <v>32</v>
-      </c>
-      <c r="AG4">
-        <v>44</v>
-      </c>
-      <c r="AH4">
-        <v>44</v>
-      </c>
-      <c r="AI4">
-        <v>44</v>
-      </c>
-      <c r="AJ4">
-        <v>44</v>
-      </c>
-      <c r="AK4">
-        <v>44</v>
-      </c>
-      <c r="AL4">
-        <v>44</v>
-      </c>
-      <c r="AM4">
-        <v>44</v>
-      </c>
-      <c r="AN4">
-        <v>44</v>
-      </c>
-      <c r="AO4">
-        <v>44</v>
-      </c>
-      <c r="AP4">
-        <v>44</v>
-      </c>
-      <c r="AQ4">
-        <v>56</v>
-      </c>
-      <c r="AR4">
-        <v>56</v>
-      </c>
-      <c r="AS4">
-        <v>56</v>
-      </c>
-      <c r="AT4">
-        <v>56</v>
-      </c>
-      <c r="AU4">
-        <v>56</v>
-      </c>
-      <c r="AV4">
-        <v>56</v>
-      </c>
-      <c r="AW4">
-        <v>56</v>
-      </c>
-      <c r="AX4">
-        <v>56</v>
-      </c>
-      <c r="AY4">
-        <v>56</v>
-      </c>
-      <c r="AZ4">
-        <v>56</v>
-      </c>
-      <c r="BA4">
-        <v>67</v>
-      </c>
-      <c r="BB4">
-        <v>67</v>
-      </c>
-      <c r="BC4">
-        <v>67</v>
-      </c>
-      <c r="BD4">
-        <v>67</v>
-      </c>
-      <c r="BE4">
-        <v>67</v>
-      </c>
-      <c r="BF4">
-        <v>67</v>
-      </c>
-      <c r="BG4">
-        <v>67</v>
-      </c>
-      <c r="BH4">
-        <v>67</v>
-      </c>
-      <c r="BI4">
-        <v>67</v>
-      </c>
-      <c r="BJ4">
-        <v>67</v>
-      </c>
-      <c r="BK4">
-        <v>78</v>
-      </c>
-      <c r="BL4">
-        <v>78</v>
-      </c>
-      <c r="BM4">
-        <v>78</v>
-      </c>
-      <c r="BN4">
-        <v>78</v>
-      </c>
-      <c r="BO4">
-        <v>78</v>
-      </c>
-      <c r="BP4">
-        <v>78</v>
-      </c>
-      <c r="BQ4">
-        <v>78</v>
-      </c>
-      <c r="BR4">
-        <v>78</v>
-      </c>
-      <c r="BS4">
-        <v>78</v>
-      </c>
-      <c r="BT4">
-        <v>78</v>
-      </c>
-      <c r="BU4">
-        <v>86</v>
-      </c>
-      <c r="BV4">
-        <v>87</v>
-      </c>
-      <c r="BW4">
-        <v>88</v>
-      </c>
-      <c r="BX4">
-        <v>89</v>
-      </c>
-      <c r="BY4">
-        <v>90</v>
-      </c>
-      <c r="BZ4">
-        <v>91</v>
-      </c>
-      <c r="CA4">
-        <v>92</v>
-      </c>
-      <c r="CB4">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D7FFB8-FD3C-4C14-84E3-9E76796B88A2}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>92</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>809</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>810</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
